--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H2">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I2">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J2">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05540601606757</v>
+        <v>1.140304</v>
       </c>
       <c r="N2">
-        <v>1.05540601606757</v>
+        <v>3.420912</v>
       </c>
       <c r="O2">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="P2">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="Q2">
-        <v>47.55768150484106</v>
+        <v>65.04894614116802</v>
       </c>
       <c r="R2">
-        <v>47.55768150484106</v>
+        <v>585.4405152705122</v>
       </c>
       <c r="S2">
-        <v>0.06457966829980528</v>
+        <v>0.06555999841385193</v>
       </c>
       <c r="T2">
-        <v>0.06457966829980528</v>
+        <v>0.06555999841385192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H3">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I3">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J3">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.77288221699746</v>
+        <v>1.916907333333333</v>
       </c>
       <c r="N3">
-        <v>1.77288221699746</v>
+        <v>5.750722</v>
       </c>
       <c r="O3">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="P3">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="Q3">
-        <v>79.88789767914653</v>
+        <v>109.350490644258</v>
       </c>
       <c r="R3">
-        <v>79.88789767914653</v>
+        <v>984.154415798322</v>
       </c>
       <c r="S3">
-        <v>0.1084816115933428</v>
+        <v>0.1102095947509037</v>
       </c>
       <c r="T3">
-        <v>0.1084816115933428</v>
+        <v>0.1102095947509037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H4">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I4">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J4">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.300293726926463</v>
+        <v>0.3556303333333333</v>
       </c>
       <c r="N4">
-        <v>0.300293726926463</v>
+        <v>1.066891</v>
       </c>
       <c r="O4">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="P4">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="Q4">
-        <v>13.53154445365234</v>
+        <v>20.287027318299</v>
       </c>
       <c r="R4">
-        <v>13.53154445365234</v>
+        <v>182.583245864691</v>
       </c>
       <c r="S4">
-        <v>0.01837479508566843</v>
+        <v>0.02044641085995573</v>
       </c>
       <c r="T4">
-        <v>0.01837479508566843</v>
+        <v>0.02044641085995573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H5">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I5">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J5">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.490009818627937</v>
+        <v>0.9175653333333335</v>
       </c>
       <c r="N5">
-        <v>0.490009818627937</v>
+        <v>2.752696</v>
       </c>
       <c r="O5">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825002</v>
       </c>
       <c r="P5">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825001</v>
       </c>
       <c r="Q5">
-        <v>22.08034683692801</v>
+        <v>52.34275942994401</v>
       </c>
       <c r="R5">
-        <v>22.08034683692801</v>
+        <v>471.0848348694961</v>
       </c>
       <c r="S5">
-        <v>0.02998341024106304</v>
+        <v>0.05275398647899056</v>
       </c>
       <c r="T5">
-        <v>0.02998341024106304</v>
+        <v>0.05275398647899055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H6">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I6">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J6">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05540601606757</v>
+        <v>1.140304</v>
       </c>
       <c r="N6">
-        <v>1.05540601606757</v>
+        <v>3.420912</v>
       </c>
       <c r="O6">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="P6">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="Q6">
-        <v>56.8398025645805</v>
+        <v>61.67925963765868</v>
       </c>
       <c r="R6">
-        <v>56.8398025645805</v>
+        <v>555.1133367389281</v>
       </c>
       <c r="S6">
-        <v>0.077184073733144</v>
+        <v>0.06216383821556338</v>
       </c>
       <c r="T6">
-        <v>0.077184073733144</v>
+        <v>0.06216383821556336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H7">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I7">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J7">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.77288221699746</v>
+        <v>1.916907333333333</v>
       </c>
       <c r="N7">
-        <v>1.77288221699746</v>
+        <v>5.750722</v>
       </c>
       <c r="O7">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="P7">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="Q7">
-        <v>95.48010306010973</v>
+        <v>103.6858812334242</v>
       </c>
       <c r="R7">
-        <v>95.48010306010973</v>
+        <v>933.1729311008179</v>
       </c>
       <c r="S7">
-        <v>0.1296546254935797</v>
+        <v>0.1045004817518489</v>
       </c>
       <c r="T7">
-        <v>0.1296546254935797</v>
+        <v>0.1045004817518489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H8">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I8">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J8">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.300293726926463</v>
+        <v>0.3556303333333333</v>
       </c>
       <c r="N8">
-        <v>0.300293726926463</v>
+        <v>1.066891</v>
       </c>
       <c r="O8">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="P8">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="Q8">
-        <v>16.17257803160886</v>
+        <v>19.23611218121989</v>
       </c>
       <c r="R8">
-        <v>16.17257803160886</v>
+        <v>173.125009630979</v>
       </c>
       <c r="S8">
-        <v>0.02196111525595929</v>
+        <v>0.01938723928520833</v>
       </c>
       <c r="T8">
-        <v>0.02196111525595929</v>
+        <v>0.01938723928520833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H9">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I9">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J9">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.490009818627937</v>
+        <v>0.9175653333333335</v>
       </c>
       <c r="N9">
-        <v>0.490009818627937</v>
+        <v>2.752696</v>
       </c>
       <c r="O9">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825002</v>
       </c>
       <c r="P9">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825001</v>
       </c>
       <c r="Q9">
-        <v>26.38990201069185</v>
+        <v>49.63128291155823</v>
       </c>
       <c r="R9">
-        <v>26.38990201069185</v>
+        <v>446.681546204024</v>
       </c>
       <c r="S9">
-        <v>0.03583545421871254</v>
+        <v>0.05002120744428049</v>
       </c>
       <c r="T9">
-        <v>0.03583545421871254</v>
+        <v>0.05002120744428047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H10">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I10">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J10">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05540601606757</v>
+        <v>1.140304</v>
       </c>
       <c r="N10">
-        <v>1.05540601606757</v>
+        <v>3.420912</v>
       </c>
       <c r="O10">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="P10">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="Q10">
-        <v>64.25306284933022</v>
+        <v>76.90748627548801</v>
       </c>
       <c r="R10">
-        <v>64.25306284933022</v>
+        <v>692.167376479392</v>
       </c>
       <c r="S10">
-        <v>0.08725071018514435</v>
+        <v>0.0775117042986701</v>
       </c>
       <c r="T10">
-        <v>0.08725071018514435</v>
+        <v>0.07751170429867009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H11">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I11">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J11">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.77288221699746</v>
+        <v>1.916907333333333</v>
       </c>
       <c r="N11">
-        <v>1.77288221699746</v>
+        <v>5.750722</v>
       </c>
       <c r="O11">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="P11">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="Q11">
-        <v>107.932976294409</v>
+        <v>129.285282196428</v>
       </c>
       <c r="R11">
-        <v>107.932976294409</v>
+        <v>1163.567539767852</v>
       </c>
       <c r="S11">
-        <v>0.1465646681492274</v>
+        <v>0.1303010025302775</v>
       </c>
       <c r="T11">
-        <v>0.1465646681492274</v>
+        <v>0.1303010025302775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H12">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I12">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J12">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.300293726926463</v>
+        <v>0.3556303333333333</v>
       </c>
       <c r="N12">
-        <v>0.300293726926463</v>
+        <v>1.066891</v>
       </c>
       <c r="O12">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="P12">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="Q12">
-        <v>18.28186632984886</v>
+        <v>23.985388966434</v>
       </c>
       <c r="R12">
-        <v>18.28186632984886</v>
+        <v>215.868500697906</v>
       </c>
       <c r="S12">
-        <v>0.02482536629467181</v>
+        <v>0.02417382841502863</v>
       </c>
       <c r="T12">
-        <v>0.02482536629467181</v>
+        <v>0.02417382841502863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H13">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I13">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J13">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.490009818627937</v>
+        <v>0.9175653333333335</v>
       </c>
       <c r="N13">
-        <v>0.490009818627937</v>
+        <v>2.752696</v>
       </c>
       <c r="O13">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825002</v>
       </c>
       <c r="P13">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825001</v>
       </c>
       <c r="Q13">
-        <v>29.83177203253123</v>
+        <v>61.88493882350401</v>
       </c>
       <c r="R13">
-        <v>29.83177203253123</v>
+        <v>556.964449411536</v>
       </c>
       <c r="S13">
-        <v>0.04050924859447084</v>
+        <v>0.06237113330484151</v>
       </c>
       <c r="T13">
-        <v>0.04050924859447084</v>
+        <v>0.0623711333048415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H14">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I14">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J14">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.05540601606757</v>
+        <v>1.140304</v>
       </c>
       <c r="N14">
-        <v>1.05540601606757</v>
+        <v>3.420912</v>
       </c>
       <c r="O14">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="P14">
-        <v>0.2916620831074319</v>
+        <v>0.263324902255146</v>
       </c>
       <c r="Q14">
-        <v>46.13489284330954</v>
+        <v>57.63654404757335</v>
       </c>
       <c r="R14">
-        <v>46.13489284330954</v>
+        <v>518.7288964281601</v>
       </c>
       <c r="S14">
-        <v>0.06264763088933824</v>
+        <v>0.05808936132706063</v>
       </c>
       <c r="T14">
-        <v>0.06264763088933824</v>
+        <v>0.05808936132706062</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H15">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I15">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J15">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.77288221699746</v>
+        <v>1.916907333333333</v>
       </c>
       <c r="N15">
-        <v>1.77288221699746</v>
+        <v>5.750722</v>
       </c>
       <c r="O15">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="P15">
-        <v>0.489937059900648</v>
+        <v>0.4426621639336287</v>
       </c>
       <c r="Q15">
-        <v>77.49788219868394</v>
+        <v>96.88987669321777</v>
       </c>
       <c r="R15">
-        <v>77.49788219868394</v>
+        <v>872.00889023896</v>
       </c>
       <c r="S15">
-        <v>0.1052361546644981</v>
+        <v>0.09765108490059864</v>
       </c>
       <c r="T15">
-        <v>0.1052361546644981</v>
+        <v>0.09765108490059864</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H16">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I16">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J16">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.300293726926463</v>
+        <v>0.3556303333333333</v>
       </c>
       <c r="N16">
-        <v>0.300293726926463</v>
+        <v>1.066891</v>
       </c>
       <c r="O16">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="P16">
-        <v>0.08298635085083608</v>
+        <v>0.08212399742872513</v>
       </c>
       <c r="Q16">
-        <v>13.12671967219813</v>
+        <v>17.97529726443111</v>
       </c>
       <c r="R16">
-        <v>13.12671967219813</v>
+        <v>161.77767537988</v>
       </c>
       <c r="S16">
-        <v>0.01782507421453654</v>
+        <v>0.01811651886853244</v>
       </c>
       <c r="T16">
-        <v>0.01782507421453654</v>
+        <v>0.01811651886853244</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H17">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I17">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J17">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.490009818627937</v>
+        <v>0.9175653333333335</v>
       </c>
       <c r="N17">
-        <v>0.490009818627937</v>
+        <v>2.752696</v>
       </c>
       <c r="O17">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825002</v>
       </c>
       <c r="P17">
-        <v>0.135414506141084</v>
+        <v>0.2118889363825001</v>
       </c>
       <c r="Q17">
-        <v>21.41976654520234</v>
+        <v>46.37824189969778</v>
       </c>
       <c r="R17">
-        <v>21.41976654520234</v>
+        <v>417.4041770972801</v>
       </c>
       <c r="S17">
-        <v>0.02908639308683759</v>
+        <v>0.04674260915438763</v>
       </c>
       <c r="T17">
-        <v>0.02908639308683759</v>
+        <v>0.04674260915438762</v>
       </c>
     </row>
   </sheetData>
